--- a/data-raw/metadata/feather_snorkel_lookup_metadata.xlsx
+++ b/data-raw/metadata/feather_snorkel_lookup_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badhia\Documents\git\edi-feather-snorkel\data-raw\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE45B39A-E0CB-4BE5-BCB7-B4E1ED5975F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3599BC80-7722-49D0-B1AE-07E9C9F5E76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9460" yWindow="900" windowWidth="14290" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -88,9 +88,6 @@
     <t xml:space="preserve">unit                 </t>
   </si>
   <si>
-    <t>survey_type</t>
-  </si>
-  <si>
     <t>section_type</t>
   </si>
   <si>
@@ -109,9 +106,6 @@
     <t xml:space="preserve">Unit associated with specific reccord observed </t>
   </si>
   <si>
-    <t xml:space="preserve">Type of survey conducted </t>
-  </si>
-  <si>
     <t>Survey site type. Site types include: permanent - site surveyed repetedly, Random - site surveyed as a proxy if "permanent site" not feasible to survey</t>
   </si>
   <si>
@@ -123,7 +117,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -211,7 +205,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -439,7 +433,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -518,13 +512,13 @@
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -556,13 +550,13 @@
         <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
@@ -594,13 +588,13 @@
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
@@ -611,8 +605,8 @@
       <c r="I4" s="2"/>
       <c r="J4" s="3"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -629,16 +623,16 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
@@ -647,10 +641,10 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="3"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -664,44 +658,6 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
@@ -27908,16 +27864,16 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C36:C979 C12:C24 C8:C10 C1:C6" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C36:C979 C12:C24 C8:C10 C1:C5" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E12:E979 E8:E10 E1:E6" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E12:E979 E8:E10 E1:E5" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F12:F979 F8:F10 F1:F6" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F12:F979 F8:F10 F1:F5" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"ratio,interval"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H12:H979 H8:H10 H1:H6" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H12:H979 H8:H10 H1:H5" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
   </dataValidations>
